--- a/survey_data.xlsx
+++ b/survey_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkeya\Documents\projects\innovation_study_ssa-digitization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BA116B-097F-4876-A4B3-A8D7F6FD523B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E234CC-4A8E-43B1-A739-B787FA5149B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="802">
   <si>
     <t>id</t>
   </si>
@@ -2337,6 +2337,162 @@
   <si>
     <t xml:space="preserve">
 1. Annual workshops involving  regulators and industry</t>
+  </si>
+  <si>
+    <t>Bah BONI</t>
+  </si>
+  <si>
+    <t>Direction de la Protection des Végétaux du Contrôle et de la Qualité</t>
+  </si>
+  <si>
+    <t>Sous Directeur</t>
+  </si>
+  <si>
+    <t>BPV 82 Abidjan</t>
+  </si>
+  <si>
+    <t>2720242323</t>
+  </si>
+  <si>
+    <t>+2250747544462</t>
+  </si>
+  <si>
+    <t>bahboni@yahoo.fr</t>
+  </si>
+  <si>
+    <t>Pas de site Web</t>
+  </si>
+  <si>
+    <t>Decret 89</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>OIPI</t>
+  </si>
+  <si>
+    <t>DECRET 89</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>22000</t>
+  </si>
+  <si>
+    <t>23000</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>SANOU Manoé Réné</t>
+  </si>
+  <si>
+    <t>SOLEVO</t>
+  </si>
+  <si>
+    <t>Responsable R&amp;D</t>
+  </si>
+  <si>
+    <t>04 BP 8098 Ouagadougou 04 BURKINA FASO</t>
+  </si>
+  <si>
+    <t>+226 25 35 56 88</t>
+  </si>
+  <si>
+    <t>+226 78 43 06 33 / 65 26 33 17</t>
+  </si>
+  <si>
+    <t>renesanou82@yahoo.fr</t>
+  </si>
+  <si>
+    <t>Comité national de gestion des pesticides (CNGP)</t>
+  </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>Ministère de la securité</t>
+  </si>
+  <si>
+    <t>Ministère de la recherche scientifique</t>
+  </si>
+  <si>
+    <t>Ministère de l'agriculture</t>
+  </si>
+  <si>
+    <t>Comité Sahelien des Pesticides (CSP)</t>
+  </si>
+  <si>
+    <t>Study of species bioecology</t>
+  </si>
+  <si>
+    <t>Ernest MUZUKUTWA</t>
+  </si>
+  <si>
+    <t>CropLife Zambia</t>
+  </si>
+  <si>
+    <t>Chief Executive Officer</t>
+  </si>
+  <si>
+    <t>Stand No G3 Showgrounds. Lusaka</t>
+  </si>
+  <si>
+    <t>0964029148</t>
+  </si>
+  <si>
+    <t>croplifezambia@gmail.com</t>
+  </si>
+  <si>
+    <t>Environmental Management Act</t>
+  </si>
+  <si>
+    <t>Biosafety Act</t>
+  </si>
+  <si>
+    <t>Initial importation permit acts as a registration process with submission of a dossier, legislation for registration is in the process of being implemented</t>
+  </si>
+  <si>
+    <t>This is done by individual companies as part of the Research and Development in their marketing and sales of their respective products</t>
+  </si>
+  <si>
+    <t>Small scale farmers development agency SAFADA</t>
+  </si>
+  <si>
+    <t>National Union for Small Scale Farmers (NUSFAZ)</t>
+  </si>
+  <si>
+    <t>Tomato Growers Network - Zambia</t>
+  </si>
+  <si>
+    <t>Mkushi Farmers Association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Low funding for R&amp;D
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low funding for R&amp;D and Monitoring and evaluation of the process.  To monitor adoption and providing solutions to the bottlenecks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The regulator still uses paper based submission and review of the various regulatory requirements such as importation permits. 
+The regulation of pesticides is done by an agency regulating environmental protection and not the ministry of Agriculture. The review of pesticides instruments is done by inspectors with an environmentalist lens and not from the agricultural perspective. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establishing a dedicated agency within Ministry of Agriculture to lead the innovations, in liaison with the Agricultural departments in respective universities and colleges.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure that the regulation of biopesticides is harmonised with the regional SADC guidelines. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide various incentives to private sector involved in the flow and deployment of innovations, such as tax incentives (Tax Credits, Tax Exemptions,  Tax Rebates etc)
+</t>
   </si>
 </sst>
 </file>
@@ -2689,7 +2845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FS25"/>
+  <dimension ref="A1:FS29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
@@ -10374,6 +10530,857 @@
         <v>750</v>
       </c>
     </row>
+    <row r="26" spans="1:175" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>117</v>
+      </c>
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26">
+        <v>739274868</v>
+      </c>
+      <c r="F26" t="s">
+        <v>721</v>
+      </c>
+      <c r="G26" t="s">
+        <v>457</v>
+      </c>
+      <c r="H26" t="s">
+        <v>751</v>
+      </c>
+      <c r="I26" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" t="s">
+        <v>752</v>
+      </c>
+      <c r="K26" t="s">
+        <v>753</v>
+      </c>
+      <c r="L26" t="s">
+        <v>754</v>
+      </c>
+      <c r="M26" t="s">
+        <v>755</v>
+      </c>
+      <c r="N26" t="s">
+        <v>756</v>
+      </c>
+      <c r="O26" t="s">
+        <v>757</v>
+      </c>
+      <c r="P26" t="s">
+        <v>758</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>226</v>
+      </c>
+      <c r="R26" t="s">
+        <v>759</v>
+      </c>
+      <c r="S26" t="s">
+        <v>760</v>
+      </c>
+      <c r="T26" t="s">
+        <v>293</v>
+      </c>
+      <c r="U26" t="s">
+        <v>226</v>
+      </c>
+      <c r="V26" t="s">
+        <v>759</v>
+      </c>
+      <c r="W26" t="s">
+        <v>760</v>
+      </c>
+      <c r="X26" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>761</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>293</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>761</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>293</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>761</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>762</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>293</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>293</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>293</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>293</v>
+      </c>
+      <c r="AW26">
+        <v>4</v>
+      </c>
+      <c r="AX26">
+        <v>3</v>
+      </c>
+      <c r="AY26">
+        <v>3</v>
+      </c>
+      <c r="AZ26">
+        <v>3</v>
+      </c>
+      <c r="BA26">
+        <v>5</v>
+      </c>
+      <c r="BB26">
+        <v>4</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>419</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>419</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>752</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>226</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>226</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>226</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>226</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>226</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>226</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>226</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>226</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>226</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>226</v>
+      </c>
+      <c r="BX26" t="s">
+        <v>763</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>764</v>
+      </c>
+      <c r="CJ26" t="s">
+        <v>764</v>
+      </c>
+      <c r="CP26" t="s">
+        <v>765</v>
+      </c>
+      <c r="CV26" t="s">
+        <v>766</v>
+      </c>
+      <c r="CZ26" t="s">
+        <v>279</v>
+      </c>
+      <c r="DC26" t="s">
+        <v>343</v>
+      </c>
+      <c r="DF26" t="s">
+        <v>279</v>
+      </c>
+      <c r="DI26" t="s">
+        <v>279</v>
+      </c>
+      <c r="DL26" t="s">
+        <v>582</v>
+      </c>
+      <c r="DO26">
+        <v>2</v>
+      </c>
+      <c r="DP26">
+        <v>2</v>
+      </c>
+      <c r="DQ26">
+        <v>2</v>
+      </c>
+      <c r="DR26">
+        <v>3</v>
+      </c>
+      <c r="DU26" t="s">
+        <v>274</v>
+      </c>
+      <c r="DV26">
+        <v>2</v>
+      </c>
+      <c r="DY26" t="s">
+        <v>201</v>
+      </c>
+      <c r="EA26" t="s">
+        <v>201</v>
+      </c>
+      <c r="EC26" t="s">
+        <v>201</v>
+      </c>
+      <c r="EE26" t="s">
+        <v>201</v>
+      </c>
+      <c r="EG26" t="s">
+        <v>203</v>
+      </c>
+      <c r="EH26" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ26" t="s">
+        <v>187</v>
+      </c>
+      <c r="EK26" t="s">
+        <v>187</v>
+      </c>
+      <c r="EN26" t="s">
+        <v>187</v>
+      </c>
+      <c r="EO26" t="s">
+        <v>187</v>
+      </c>
+      <c r="EP26" t="s">
+        <v>282</v>
+      </c>
+      <c r="ER26" t="s">
+        <v>187</v>
+      </c>
+      <c r="ES26" t="s">
+        <v>201</v>
+      </c>
+      <c r="EY26">
+        <v>1</v>
+      </c>
+      <c r="EZ26">
+        <v>2</v>
+      </c>
+      <c r="FA26">
+        <v>2</v>
+      </c>
+      <c r="FB26">
+        <v>2</v>
+      </c>
+      <c r="FC26">
+        <v>2</v>
+      </c>
+      <c r="FD26">
+        <v>2</v>
+      </c>
+      <c r="FE26">
+        <v>2</v>
+      </c>
+      <c r="FF26">
+        <v>1</v>
+      </c>
+      <c r="FG26" t="s">
+        <v>187</v>
+      </c>
+      <c r="FH26" t="s">
+        <v>201</v>
+      </c>
+      <c r="FI26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:175" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27">
+        <v>2078656459</v>
+      </c>
+      <c r="F27" t="s">
+        <v>721</v>
+      </c>
+      <c r="G27" t="s">
+        <v>767</v>
+      </c>
+      <c r="H27" t="s">
+        <v>768</v>
+      </c>
+      <c r="I27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J27" t="s">
+        <v>769</v>
+      </c>
+      <c r="K27" t="s">
+        <v>770</v>
+      </c>
+      <c r="L27" t="s">
+        <v>771</v>
+      </c>
+      <c r="M27" t="s">
+        <v>772</v>
+      </c>
+      <c r="N27" t="s">
+        <v>773</v>
+      </c>
+      <c r="O27" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>201</v>
+      </c>
+      <c r="U27" t="s">
+        <v>187</v>
+      </c>
+      <c r="V27" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>776</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>776</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>777</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>778</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>779</v>
+      </c>
+      <c r="AW27">
+        <v>3</v>
+      </c>
+      <c r="AX27">
+        <v>2</v>
+      </c>
+      <c r="AY27">
+        <v>3</v>
+      </c>
+      <c r="AZ27">
+        <v>5</v>
+      </c>
+      <c r="BA27">
+        <v>4</v>
+      </c>
+      <c r="BB27">
+        <v>5</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>780</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>201</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>201</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>187</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>187</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>187</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>187</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>187</v>
+      </c>
+      <c r="DO27">
+        <v>3</v>
+      </c>
+      <c r="DP27">
+        <v>2</v>
+      </c>
+      <c r="DQ27">
+        <v>2</v>
+      </c>
+      <c r="DR27">
+        <v>4</v>
+      </c>
+      <c r="DT27" t="s">
+        <v>781</v>
+      </c>
+      <c r="DU27" t="s">
+        <v>187</v>
+      </c>
+      <c r="DV27">
+        <v>3</v>
+      </c>
+      <c r="DW27">
+        <v>3</v>
+      </c>
+      <c r="DX27">
+        <v>2</v>
+      </c>
+      <c r="DY27" t="s">
+        <v>201</v>
+      </c>
+      <c r="EA27" t="s">
+        <v>187</v>
+      </c>
+      <c r="EC27" t="s">
+        <v>187</v>
+      </c>
+      <c r="EE27" t="s">
+        <v>201</v>
+      </c>
+      <c r="EG27" t="s">
+        <v>203</v>
+      </c>
+      <c r="FG27" t="s">
+        <v>274</v>
+      </c>
+      <c r="FH27" t="s">
+        <v>274</v>
+      </c>
+      <c r="FI27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:175" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>120</v>
+      </c>
+      <c r="B28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28">
+        <v>1240658564</v>
+      </c>
+      <c r="DU28" t="s">
+        <v>274</v>
+      </c>
+      <c r="DY28" t="s">
+        <v>201</v>
+      </c>
+      <c r="EA28" t="s">
+        <v>201</v>
+      </c>
+      <c r="EC28" t="s">
+        <v>201</v>
+      </c>
+      <c r="EE28" t="s">
+        <v>201</v>
+      </c>
+      <c r="FG28" t="s">
+        <v>274</v>
+      </c>
+      <c r="FH28" t="s">
+        <v>274</v>
+      </c>
+      <c r="FI28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:175" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29">
+        <v>2038680733</v>
+      </c>
+      <c r="F29" t="s">
+        <v>721</v>
+      </c>
+      <c r="G29" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" t="s">
+        <v>782</v>
+      </c>
+      <c r="I29" t="s">
+        <v>219</v>
+      </c>
+      <c r="J29" t="s">
+        <v>783</v>
+      </c>
+      <c r="K29" t="s">
+        <v>784</v>
+      </c>
+      <c r="L29" t="s">
+        <v>785</v>
+      </c>
+      <c r="M29" t="s">
+        <v>786</v>
+      </c>
+      <c r="N29" t="s">
+        <v>786</v>
+      </c>
+      <c r="O29" t="s">
+        <v>787</v>
+      </c>
+      <c r="U29" t="s">
+        <v>187</v>
+      </c>
+      <c r="V29" t="s">
+        <v>788</v>
+      </c>
+      <c r="W29" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>789</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX29">
+        <v>4</v>
+      </c>
+      <c r="BA29">
+        <v>2</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>180</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>201</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>201</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>201</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>201</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>201</v>
+      </c>
+      <c r="BN29" t="s">
+        <v>201</v>
+      </c>
+      <c r="BO29" t="s">
+        <v>201</v>
+      </c>
+      <c r="BP29" t="s">
+        <v>201</v>
+      </c>
+      <c r="BQ29" t="s">
+        <v>201</v>
+      </c>
+      <c r="BR29" t="s">
+        <v>201</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>201</v>
+      </c>
+      <c r="BT29" t="s">
+        <v>790</v>
+      </c>
+      <c r="DO29">
+        <v>3</v>
+      </c>
+      <c r="DP29">
+        <v>1</v>
+      </c>
+      <c r="DQ29">
+        <v>2</v>
+      </c>
+      <c r="DR29">
+        <v>3</v>
+      </c>
+      <c r="DT29" t="s">
+        <v>791</v>
+      </c>
+      <c r="DU29" t="s">
+        <v>187</v>
+      </c>
+      <c r="DV29">
+        <v>1</v>
+      </c>
+      <c r="DW29">
+        <v>2</v>
+      </c>
+      <c r="DX29">
+        <v>3</v>
+      </c>
+      <c r="DY29" t="s">
+        <v>201</v>
+      </c>
+      <c r="EA29" t="s">
+        <v>201</v>
+      </c>
+      <c r="EC29" t="s">
+        <v>201</v>
+      </c>
+      <c r="EE29" t="s">
+        <v>187</v>
+      </c>
+      <c r="EF29" t="s">
+        <v>259</v>
+      </c>
+      <c r="EG29" t="s">
+        <v>203</v>
+      </c>
+      <c r="EH29" t="s">
+        <v>187</v>
+      </c>
+      <c r="EI29" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ29" t="s">
+        <v>187</v>
+      </c>
+      <c r="EK29" t="s">
+        <v>187</v>
+      </c>
+      <c r="EL29" t="s">
+        <v>187</v>
+      </c>
+      <c r="EM29" t="s">
+        <v>282</v>
+      </c>
+      <c r="EN29" t="s">
+        <v>187</v>
+      </c>
+      <c r="EO29" t="s">
+        <v>187</v>
+      </c>
+      <c r="EP29" t="s">
+        <v>187</v>
+      </c>
+      <c r="EQ29" t="s">
+        <v>187</v>
+      </c>
+      <c r="ER29" t="s">
+        <v>282</v>
+      </c>
+      <c r="ES29" t="s">
+        <v>187</v>
+      </c>
+      <c r="ET29" t="s">
+        <v>204</v>
+      </c>
+      <c r="EU29" t="s">
+        <v>792</v>
+      </c>
+      <c r="EV29" t="s">
+        <v>793</v>
+      </c>
+      <c r="EW29" t="s">
+        <v>794</v>
+      </c>
+      <c r="EX29" t="s">
+        <v>795</v>
+      </c>
+      <c r="EY29">
+        <v>4</v>
+      </c>
+      <c r="EZ29">
+        <v>3</v>
+      </c>
+      <c r="FA29">
+        <v>2</v>
+      </c>
+      <c r="FB29">
+        <v>3</v>
+      </c>
+      <c r="FC29">
+        <v>2</v>
+      </c>
+      <c r="FD29">
+        <v>3</v>
+      </c>
+      <c r="FE29">
+        <v>3</v>
+      </c>
+      <c r="FF29">
+        <v>3</v>
+      </c>
+      <c r="FG29" t="s">
+        <v>187</v>
+      </c>
+      <c r="FH29" t="s">
+        <v>201</v>
+      </c>
+      <c r="FI29" t="s">
+        <v>201</v>
+      </c>
+      <c r="FJ29" t="s">
+        <v>796</v>
+      </c>
+      <c r="FN29" t="s">
+        <v>797</v>
+      </c>
+      <c r="FO29" t="s">
+        <v>798</v>
+      </c>
+      <c r="FP29" t="s">
+        <v>799</v>
+      </c>
+      <c r="FQ29" t="s">
+        <v>800</v>
+      </c>
+      <c r="FR29" t="s">
+        <v>801</v>
+      </c>
+      <c r="FS29" t="s">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/survey_data.xlsx
+++ b/survey_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkeya\Documents\projects\innovation_study_ssa-digitization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E234CC-4A8E-43B1-A739-B787FA5149B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F4310D-4882-4DBB-8018-BAFC45F9308D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="831">
   <si>
     <t>id</t>
   </si>
@@ -2492,6 +2492,118 @@
   </si>
   <si>
     <t xml:space="preserve">Provide various incentives to private sector involved in the flow and deployment of innovations, such as tax incentives (Tax Credits, Tax Exemptions,  Tax Rebates etc)
+</t>
+  </si>
+  <si>
+    <t>Agnes Kiplagat</t>
+  </si>
+  <si>
+    <t>BASF</t>
+  </si>
+  <si>
+    <t>BASF East Africa Ltd. , The pavillion 6th Floor, Lower Kabete Road, Nairobi</t>
+  </si>
+  <si>
+    <t>0733965298</t>
+  </si>
+  <si>
+    <t>PCPB, Act 346</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Legislation as at 31 December 2022</t>
+  </si>
+  <si>
+    <t>https://www.pcpb.go.ke/wp-content/uploads/2025/01/Pest-Control-Products-Act-1.pdf</t>
+  </si>
+  <si>
+    <t>Legislation as at 31 December 2022,Subsidiary Legislation 2024</t>
+  </si>
+  <si>
+    <t>https://www.pcpb.go.ke/pcp-act/</t>
+  </si>
+  <si>
+    <t>Legislation as at 31 December 2022</t>
+  </si>
+  <si>
+    <t>Kenya Drone Laws, Kenyan Civil Aviation Authority</t>
+  </si>
+  <si>
+    <t>National Biosafety Authority</t>
+  </si>
+  <si>
+    <t>PCPB Act 346, KEPHIS</t>
+  </si>
+  <si>
+    <t>Pest Control Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistance management
+Reduced reliance on  conventional pest control products
+</t>
+  </si>
+  <si>
+    <t>Cereal Growers Association</t>
+  </si>
+  <si>
+    <t>Fresh Produce Exporters Association of Kenya</t>
+  </si>
+  <si>
+    <t>Fresh Produce Consortium of Kenya</t>
+  </si>
+  <si>
+    <t>Coffee Cooperative Societies</t>
+  </si>
+  <si>
+    <t>New Kenya Planters Cooperative Union (New KPCU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of knowledge of how the Technology works
+Accessibility
+Low adoption rate
+Affordability
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRLs issues
+Disposal of empty containers
+Counterfeits/illegal products
+</t>
+  </si>
+  <si>
+    <t>Counterfeits
+Disposal of empty containers
+Low adoption</t>
+  </si>
+  <si>
+    <t>Lengthy registration processes
+Low adoption rate
+Integration with conventional products
+Efficacy levels</t>
+  </si>
+  <si>
+    <t>Lack of awareness 
+Lack of knowledge - Trainings/Capacity building
+Lack of Infrastructure  - Provide the necessary equipment that are affordable.
+Mind set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of clear policies - for example drone guidelines for pesticide application
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduce innovations that would fit the farmers especially small holder farmers
+Capacity building
+Introduce incentives to encourage farmers adopt the new  innovations
+Awareness creation </t>
+  </si>
+  <si>
+    <t>Provide waivers on the registration processes to shorten the process.
+Develop specific policy and guidelines for bio-pesticides and bi-control agents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collaborate with public  sector, government  and academia to disseminate the innovations to the target groups
+Generate training programs for use by target groups
+Work with different value chains to understand their needs
 </t>
   </si>
 </sst>
@@ -2845,10 +2957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FS29"/>
+  <dimension ref="A1:FS30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11381,6 +11493,320 @@
         <v>259</v>
       </c>
     </row>
+    <row r="30" spans="1:175" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30">
+        <v>1163162816</v>
+      </c>
+      <c r="F30" t="s">
+        <v>721</v>
+      </c>
+      <c r="G30" t="s">
+        <v>684</v>
+      </c>
+      <c r="H30" t="s">
+        <v>802</v>
+      </c>
+      <c r="I30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K30" t="s">
+        <v>803</v>
+      </c>
+      <c r="L30" t="s">
+        <v>804</v>
+      </c>
+      <c r="M30" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>187</v>
+      </c>
+      <c r="R30" t="s">
+        <v>806</v>
+      </c>
+      <c r="S30" t="s">
+        <v>807</v>
+      </c>
+      <c r="T30" t="s">
+        <v>808</v>
+      </c>
+      <c r="U30" t="s">
+        <v>187</v>
+      </c>
+      <c r="V30" t="s">
+        <v>806</v>
+      </c>
+      <c r="W30" t="s">
+        <v>809</v>
+      </c>
+      <c r="X30" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>806</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>811</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>810</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>812</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>813</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>814</v>
+      </c>
+      <c r="AW30">
+        <v>4</v>
+      </c>
+      <c r="AX30">
+        <v>4</v>
+      </c>
+      <c r="AY30">
+        <v>4</v>
+      </c>
+      <c r="AZ30">
+        <v>4</v>
+      </c>
+      <c r="BA30">
+        <v>4</v>
+      </c>
+      <c r="BB30">
+        <v>4</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>239</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>239</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>815</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>187</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>187</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>187</v>
+      </c>
+      <c r="BQ30" t="s">
+        <v>187</v>
+      </c>
+      <c r="BR30" t="s">
+        <v>187</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>187</v>
+      </c>
+      <c r="DO30">
+        <v>3</v>
+      </c>
+      <c r="DP30">
+        <v>2</v>
+      </c>
+      <c r="DQ30">
+        <v>2</v>
+      </c>
+      <c r="DR30">
+        <v>3</v>
+      </c>
+      <c r="DT30" t="s">
+        <v>816</v>
+      </c>
+      <c r="DU30" t="s">
+        <v>187</v>
+      </c>
+      <c r="DV30">
+        <v>2</v>
+      </c>
+      <c r="DW30">
+        <v>3</v>
+      </c>
+      <c r="DX30">
+        <v>4</v>
+      </c>
+      <c r="DY30" t="s">
+        <v>201</v>
+      </c>
+      <c r="EA30" t="s">
+        <v>201</v>
+      </c>
+      <c r="EC30" t="s">
+        <v>201</v>
+      </c>
+      <c r="EE30" t="s">
+        <v>201</v>
+      </c>
+      <c r="EG30" t="s">
+        <v>203</v>
+      </c>
+      <c r="EH30" t="s">
+        <v>187</v>
+      </c>
+      <c r="EI30" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ30" t="s">
+        <v>187</v>
+      </c>
+      <c r="EK30" t="s">
+        <v>282</v>
+      </c>
+      <c r="EL30" t="s">
+        <v>187</v>
+      </c>
+      <c r="EM30" t="s">
+        <v>282</v>
+      </c>
+      <c r="EN30" t="s">
+        <v>187</v>
+      </c>
+      <c r="EO30" t="s">
+        <v>187</v>
+      </c>
+      <c r="EP30" t="s">
+        <v>187</v>
+      </c>
+      <c r="EQ30" t="s">
+        <v>187</v>
+      </c>
+      <c r="ER30" t="s">
+        <v>187</v>
+      </c>
+      <c r="ES30" t="s">
+        <v>187</v>
+      </c>
+      <c r="ET30" t="s">
+        <v>817</v>
+      </c>
+      <c r="EU30" t="s">
+        <v>818</v>
+      </c>
+      <c r="EV30" t="s">
+        <v>819</v>
+      </c>
+      <c r="EW30" t="s">
+        <v>820</v>
+      </c>
+      <c r="EX30" t="s">
+        <v>821</v>
+      </c>
+      <c r="EY30">
+        <v>4</v>
+      </c>
+      <c r="EZ30">
+        <v>2</v>
+      </c>
+      <c r="FA30">
+        <v>2</v>
+      </c>
+      <c r="FB30">
+        <v>3</v>
+      </c>
+      <c r="FC30">
+        <v>2</v>
+      </c>
+      <c r="FD30">
+        <v>3</v>
+      </c>
+      <c r="FE30">
+        <v>3</v>
+      </c>
+      <c r="FF30">
+        <v>2</v>
+      </c>
+      <c r="FG30" t="s">
+        <v>187</v>
+      </c>
+      <c r="FH30" t="s">
+        <v>187</v>
+      </c>
+      <c r="FI30" t="s">
+        <v>187</v>
+      </c>
+      <c r="FJ30" t="s">
+        <v>822</v>
+      </c>
+      <c r="FK30" t="s">
+        <v>823</v>
+      </c>
+      <c r="FL30" t="s">
+        <v>824</v>
+      </c>
+      <c r="FM30" t="s">
+        <v>825</v>
+      </c>
+      <c r="FN30" t="s">
+        <v>826</v>
+      </c>
+      <c r="FO30" t="s">
+        <v>827</v>
+      </c>
+      <c r="FP30" t="s">
+        <v>828</v>
+      </c>
+      <c r="FQ30" t="s">
+        <v>829</v>
+      </c>
+      <c r="FR30" t="s">
+        <v>830</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
